--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2479.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2479.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.199568633944436</v>
+        <v>1.704868316650391</v>
       </c>
       <c r="B1">
-        <v>2.922961810742852</v>
+        <v>1.972504854202271</v>
       </c>
       <c r="C1">
-        <v>5.78821203049532</v>
+        <v>5.156136035919189</v>
       </c>
       <c r="D1">
-        <v>3.729710461034378</v>
+        <v>1.331469655036926</v>
       </c>
       <c r="E1">
-        <v>1.373183977968606</v>
+        <v>0.6571672558784485</v>
       </c>
     </row>
   </sheetData>
